--- a/inputs/CR_from_CPD_Annual_Reports_copy.xlsx
+++ b/inputs/CR_from_CPD_Annual_Reports_copy.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/polinarozhkova/Desktop/GitHub/final-project-homicide-cr-and-cpd-complaints/inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/polinarozhkova/Desktop/GitHub/cr_eda_chicago/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181DCB3F-4C98-B04D-BCE7-74055D4C58D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6384EA34-BFCA-5B44-A809-D960A17C9239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="500" windowWidth="27240" windowHeight="15940" xr2:uid="{39592381-49C9-7848-A88D-8C6161C07457}"/>
+    <workbookView xWindow="2580" yWindow="500" windowWidth="22100" windowHeight="17500" activeTab="1" xr2:uid="{39592381-49C9-7848-A88D-8C6161C07457}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="28">
   <si>
     <t>2019 Perf Report</t>
   </si>
@@ -109,6 +110,18 @@
   <si>
     <t xml:space="preserve">source </t>
   </si>
+  <si>
+    <t>year_clear</t>
+  </si>
+  <si>
+    <t>CLEARED</t>
+  </si>
+  <si>
+    <t>RD</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
 </sst>
 </file>
 
@@ -126,7 +139,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,6 +149,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -242,9 +261,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -254,10 +273,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D28806-CCAC-074C-A6E8-29188CC17C9B}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -619,7 +637,7 @@
       <c r="D2">
         <v>335</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="12">
         <f>D2/C2</f>
         <v>0.53090332805071316</v>
       </c>
@@ -641,7 +659,7 @@
       <c r="D3">
         <v>361</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="12">
         <f>D3/C3</f>
         <v>0.54204204204204209</v>
       </c>
@@ -663,7 +681,7 @@
       <c r="D4">
         <v>301</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="12">
         <f>D4/C4</f>
         <v>0.46450617283950618</v>
       </c>
@@ -685,7 +703,7 @@
       <c r="D5">
         <v>304</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="12">
         <f t="shared" ref="E5:E23" si="1">D5/C5</f>
         <v>0.50666666666666671</v>
       </c>
@@ -707,7 +725,7 @@
       <c r="D6">
         <v>234</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="12">
         <f t="shared" si="1"/>
         <v>0.5223214285714286</v>
       </c>
@@ -729,7 +747,7 @@
       <c r="D7">
         <v>195</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="12">
         <f t="shared" si="1"/>
         <v>0.43526785714285715</v>
       </c>
@@ -751,7 +769,7 @@
       <c r="D8">
         <v>181</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="12">
         <f t="shared" si="1"/>
         <v>0.38758029978586722</v>
       </c>
@@ -773,7 +791,7 @@
       <c r="D9">
         <v>175</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="12">
         <f t="shared" si="1"/>
         <v>0.39592760180995473</v>
       </c>
@@ -795,7 +813,7 @@
       <c r="D10">
         <v>181</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="12">
         <f t="shared" si="1"/>
         <v>0.35490196078431374</v>
       </c>
@@ -817,7 +835,7 @@
       <c r="D11">
         <v>160</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="12">
         <f t="shared" si="1"/>
         <v>0.34707158351409978</v>
       </c>
@@ -839,7 +857,7 @@
       <c r="D12">
         <v>148</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="12">
         <f t="shared" si="1"/>
         <v>0.33867276887871856</v>
       </c>
@@ -862,7 +880,7 @@
         <f>128+86</f>
         <v>214</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="12">
         <f t="shared" si="1"/>
         <v>0.49422632794457277</v>
       </c>
@@ -882,7 +900,7 @@
         <v>500</v>
       </c>
       <c r="D14" s="7"/>
-      <c r="E14" s="14"/>
+      <c r="E14" s="12"/>
       <c r="F14">
         <v>405</v>
       </c>
@@ -899,7 +917,7 @@
         <v>414</v>
       </c>
       <c r="D15" s="5"/>
-      <c r="E15" s="14"/>
+      <c r="E15" s="12"/>
       <c r="F15" s="8">
         <v>337</v>
       </c>
@@ -918,7 +936,7 @@
       <c r="D16" s="5">
         <v>211</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="12">
         <f t="shared" si="1"/>
         <v>0.50238095238095237</v>
       </c>
@@ -941,7 +959,7 @@
       <c r="D17" s="7">
         <v>227</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="12">
         <f t="shared" si="1"/>
         <v>0.46232179226069248</v>
       </c>
@@ -964,11 +982,11 @@
         <f>147+72</f>
         <v>219</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="12">
         <f t="shared" si="1"/>
         <v>0.2847854356306892</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18">
         <v>691</v>
       </c>
     </row>
@@ -987,11 +1005,11 @@
         <f>112+115</f>
         <v>227</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="12">
         <f t="shared" si="1"/>
         <v>0.34762633996937214</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19">
         <v>603</v>
       </c>
     </row>
@@ -1009,11 +1027,11 @@
       <c r="D20">
         <v>251</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="12">
         <f t="shared" si="1"/>
         <v>0.44424778761061945</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20">
         <v>475</v>
       </c>
     </row>
@@ -1025,17 +1043,17 @@
         <f t="shared" si="0"/>
         <v>2019</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="4">
         <v>492</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="11">
         <v>265</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="12">
         <f t="shared" si="1"/>
         <v>0.53861788617886175</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21">
         <v>442</v>
       </c>
     </row>
@@ -1047,17 +1065,17 @@
         <f t="shared" si="0"/>
         <v>2020</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="4">
         <v>770</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="11">
         <v>354</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="12">
         <f t="shared" si="1"/>
         <v>0.45974025974025973</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22">
         <v>692</v>
       </c>
     </row>
@@ -1069,22 +1087,1632 @@
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="4">
         <v>800</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="11">
         <v>400</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="12">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23">
         <v>745</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F27" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F83D31-3876-2442-9E6F-681D23C3D5B1}">
+  <dimension ref="A1:E94"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G70" sqref="G70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2019</v>
+      </c>
+      <c r="C2">
+        <v>1966</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2019</v>
+      </c>
+      <c r="C3">
+        <v>1977</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2019</v>
+      </c>
+      <c r="C4">
+        <v>1978</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2019</v>
+      </c>
+      <c r="C5">
+        <v>1980</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>2019</v>
+      </c>
+      <c r="C6">
+        <v>1988</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>2019</v>
+      </c>
+      <c r="C7">
+        <v>1990</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2019</v>
+      </c>
+      <c r="C8">
+        <v>1997</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2019</v>
+      </c>
+      <c r="C9">
+        <v>1999</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>2019</v>
+      </c>
+      <c r="C10">
+        <v>2000</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>2019</v>
+      </c>
+      <c r="C11">
+        <v>2001</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>2019</v>
+      </c>
+      <c r="C12">
+        <v>2002</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>2019</v>
+      </c>
+      <c r="C13">
+        <v>2003</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>2019</v>
+      </c>
+      <c r="C14">
+        <v>2004</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>2019</v>
+      </c>
+      <c r="C15">
+        <v>2005</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>2019</v>
+      </c>
+      <c r="C16">
+        <v>2006</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>2019</v>
+      </c>
+      <c r="C17">
+        <v>2007</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>2019</v>
+      </c>
+      <c r="C18">
+        <v>2008</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>2019</v>
+      </c>
+      <c r="C19">
+        <v>2009</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>2019</v>
+      </c>
+      <c r="C20">
+        <v>2010</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>2019</v>
+      </c>
+      <c r="C21">
+        <v>2011</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>2019</v>
+      </c>
+      <c r="C22">
+        <v>2012</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>2019</v>
+      </c>
+      <c r="C23">
+        <v>2013</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>2019</v>
+      </c>
+      <c r="C24">
+        <v>2014</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>2019</v>
+      </c>
+      <c r="C25">
+        <v>2015</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>2019</v>
+      </c>
+      <c r="C26">
+        <v>2016</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>2019</v>
+      </c>
+      <c r="C27">
+        <v>2017</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>2019</v>
+      </c>
+      <c r="C28">
+        <v>2018</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>2019</v>
+      </c>
+      <c r="C29">
+        <v>2019</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="13">
+        <v>28</v>
+      </c>
+      <c r="B30" s="13">
+        <v>2020</v>
+      </c>
+      <c r="C30" s="13">
+        <v>1974</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>2020</v>
+      </c>
+      <c r="C31">
+        <v>1977</v>
+      </c>
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>2020</v>
+      </c>
+      <c r="C32">
+        <v>1983</v>
+      </c>
+      <c r="D32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>2020</v>
+      </c>
+      <c r="C33">
+        <v>1985</v>
+      </c>
+      <c r="D33" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>2020</v>
+      </c>
+      <c r="C34">
+        <v>1989</v>
+      </c>
+      <c r="D34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>2020</v>
+      </c>
+      <c r="C35">
+        <v>1991</v>
+      </c>
+      <c r="D35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>2020</v>
+      </c>
+      <c r="C36">
+        <v>1992</v>
+      </c>
+      <c r="D36" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>2020</v>
+      </c>
+      <c r="C37">
+        <v>1995</v>
+      </c>
+      <c r="D37" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>2020</v>
+      </c>
+      <c r="C38">
+        <v>1997</v>
+      </c>
+      <c r="D38" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>2020</v>
+      </c>
+      <c r="C39">
+        <v>1998</v>
+      </c>
+      <c r="D39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>2020</v>
+      </c>
+      <c r="C40">
+        <v>1999</v>
+      </c>
+      <c r="D40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>2020</v>
+      </c>
+      <c r="C41">
+        <v>2000</v>
+      </c>
+      <c r="D41" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>2020</v>
+      </c>
+      <c r="C42">
+        <v>2002</v>
+      </c>
+      <c r="D42" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>2020</v>
+      </c>
+      <c r="C43">
+        <v>2003</v>
+      </c>
+      <c r="D43" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>2020</v>
+      </c>
+      <c r="C44">
+        <v>2004</v>
+      </c>
+      <c r="D44" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>2020</v>
+      </c>
+      <c r="C45">
+        <v>2005</v>
+      </c>
+      <c r="D45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>2020</v>
+      </c>
+      <c r="C46">
+        <v>2006</v>
+      </c>
+      <c r="D46" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>2020</v>
+      </c>
+      <c r="C47">
+        <v>2007</v>
+      </c>
+      <c r="D47" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>2020</v>
+      </c>
+      <c r="C48">
+        <v>2008</v>
+      </c>
+      <c r="D48" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>2020</v>
+      </c>
+      <c r="C49">
+        <v>2009</v>
+      </c>
+      <c r="D49" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>2020</v>
+      </c>
+      <c r="C50">
+        <v>2010</v>
+      </c>
+      <c r="D50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>2020</v>
+      </c>
+      <c r="C51">
+        <v>2011</v>
+      </c>
+      <c r="D51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>2020</v>
+      </c>
+      <c r="C52">
+        <v>2012</v>
+      </c>
+      <c r="D52" t="s">
+        <v>27</v>
+      </c>
+      <c r="E52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>2020</v>
+      </c>
+      <c r="C53">
+        <v>2013</v>
+      </c>
+      <c r="D53" t="s">
+        <v>27</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>2020</v>
+      </c>
+      <c r="C54">
+        <v>2014</v>
+      </c>
+      <c r="D54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>2020</v>
+      </c>
+      <c r="C55">
+        <v>2015</v>
+      </c>
+      <c r="D55" t="s">
+        <v>27</v>
+      </c>
+      <c r="E55">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>2020</v>
+      </c>
+      <c r="C56">
+        <v>2016</v>
+      </c>
+      <c r="D56" t="s">
+        <v>27</v>
+      </c>
+      <c r="E56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>2020</v>
+      </c>
+      <c r="C57">
+        <v>2017</v>
+      </c>
+      <c r="D57" t="s">
+        <v>27</v>
+      </c>
+      <c r="E57">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>2020</v>
+      </c>
+      <c r="C58">
+        <v>2018</v>
+      </c>
+      <c r="D58" t="s">
+        <v>27</v>
+      </c>
+      <c r="E58">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>2020</v>
+      </c>
+      <c r="C59">
+        <v>2019</v>
+      </c>
+      <c r="D59" t="s">
+        <v>27</v>
+      </c>
+      <c r="E59">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>2020</v>
+      </c>
+      <c r="C60">
+        <v>2020</v>
+      </c>
+      <c r="D60" t="s">
+        <v>27</v>
+      </c>
+      <c r="E60">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="13">
+        <v>59</v>
+      </c>
+      <c r="B61" s="13">
+        <v>2021</v>
+      </c>
+      <c r="C61" s="13">
+        <v>1968</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E61" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>2021</v>
+      </c>
+      <c r="C62">
+        <v>1970</v>
+      </c>
+      <c r="D62" t="s">
+        <v>27</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>2021</v>
+      </c>
+      <c r="C63">
+        <v>1977</v>
+      </c>
+      <c r="D63" t="s">
+        <v>27</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>2021</v>
+      </c>
+      <c r="C64">
+        <v>1979</v>
+      </c>
+      <c r="D64" t="s">
+        <v>27</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>2021</v>
+      </c>
+      <c r="C65">
+        <v>1984</v>
+      </c>
+      <c r="D65" t="s">
+        <v>27</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>2021</v>
+      </c>
+      <c r="C66">
+        <v>1989</v>
+      </c>
+      <c r="D66" t="s">
+        <v>27</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>2021</v>
+      </c>
+      <c r="C67">
+        <v>1995</v>
+      </c>
+      <c r="D67" t="s">
+        <v>27</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>2021</v>
+      </c>
+      <c r="C68">
+        <v>1998</v>
+      </c>
+      <c r="D68" t="s">
+        <v>27</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>2021</v>
+      </c>
+      <c r="C69">
+        <v>1999</v>
+      </c>
+      <c r="D69" t="s">
+        <v>27</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>2021</v>
+      </c>
+      <c r="C70">
+        <v>2000</v>
+      </c>
+      <c r="D70" t="s">
+        <v>27</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>2021</v>
+      </c>
+      <c r="C71">
+        <v>2001</v>
+      </c>
+      <c r="D71" t="s">
+        <v>27</v>
+      </c>
+      <c r="E71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>2021</v>
+      </c>
+      <c r="C72">
+        <v>2002</v>
+      </c>
+      <c r="D72" t="s">
+        <v>27</v>
+      </c>
+      <c r="E72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>2021</v>
+      </c>
+      <c r="C73">
+        <v>2003</v>
+      </c>
+      <c r="D73" t="s">
+        <v>27</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>2021</v>
+      </c>
+      <c r="C74">
+        <v>2004</v>
+      </c>
+      <c r="D74" t="s">
+        <v>27</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>2021</v>
+      </c>
+      <c r="C75">
+        <v>2005</v>
+      </c>
+      <c r="D75" t="s">
+        <v>27</v>
+      </c>
+      <c r="E75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>2021</v>
+      </c>
+      <c r="C76">
+        <v>2006</v>
+      </c>
+      <c r="D76" t="s">
+        <v>27</v>
+      </c>
+      <c r="E76">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>2021</v>
+      </c>
+      <c r="C77">
+        <v>2007</v>
+      </c>
+      <c r="D77" t="s">
+        <v>27</v>
+      </c>
+      <c r="E77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>2021</v>
+      </c>
+      <c r="C78">
+        <v>2008</v>
+      </c>
+      <c r="D78" t="s">
+        <v>27</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>2021</v>
+      </c>
+      <c r="C79">
+        <v>2009</v>
+      </c>
+      <c r="D79" t="s">
+        <v>27</v>
+      </c>
+      <c r="E79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>2021</v>
+      </c>
+      <c r="C80">
+        <v>2010</v>
+      </c>
+      <c r="D80" t="s">
+        <v>27</v>
+      </c>
+      <c r="E80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>2021</v>
+      </c>
+      <c r="C81">
+        <v>2011</v>
+      </c>
+      <c r="D81" t="s">
+        <v>27</v>
+      </c>
+      <c r="E81">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>2021</v>
+      </c>
+      <c r="C82">
+        <v>2012</v>
+      </c>
+      <c r="D82" t="s">
+        <v>27</v>
+      </c>
+      <c r="E82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>2021</v>
+      </c>
+      <c r="C83">
+        <v>2013</v>
+      </c>
+      <c r="D83" t="s">
+        <v>27</v>
+      </c>
+      <c r="E83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>2021</v>
+      </c>
+      <c r="C84">
+        <v>2014</v>
+      </c>
+      <c r="D84" t="s">
+        <v>27</v>
+      </c>
+      <c r="E84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>2021</v>
+      </c>
+      <c r="C85">
+        <v>2015</v>
+      </c>
+      <c r="D85" t="s">
+        <v>27</v>
+      </c>
+      <c r="E85">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>2021</v>
+      </c>
+      <c r="C86">
+        <v>2016</v>
+      </c>
+      <c r="D86" t="s">
+        <v>27</v>
+      </c>
+      <c r="E86">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>2021</v>
+      </c>
+      <c r="C87">
+        <v>2017</v>
+      </c>
+      <c r="D87" t="s">
+        <v>27</v>
+      </c>
+      <c r="E87">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>2021</v>
+      </c>
+      <c r="C88">
+        <v>2018</v>
+      </c>
+      <c r="D88" t="s">
+        <v>27</v>
+      </c>
+      <c r="E88">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>2021</v>
+      </c>
+      <c r="C89">
+        <v>2019</v>
+      </c>
+      <c r="D89" t="s">
+        <v>27</v>
+      </c>
+      <c r="E89">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>2021</v>
+      </c>
+      <c r="C90">
+        <v>2020</v>
+      </c>
+      <c r="D90" t="s">
+        <v>27</v>
+      </c>
+      <c r="E90">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>2021</v>
+      </c>
+      <c r="C91">
+        <v>2021</v>
+      </c>
+      <c r="D91" t="s">
+        <v>27</v>
+      </c>
+      <c r="E91">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="13">
+        <v>90</v>
+      </c>
+      <c r="B92" s="13">
+        <v>2022</v>
+      </c>
+      <c r="C92" s="13">
+        <v>2019</v>
+      </c>
+      <c r="D92" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E92" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>2022</v>
+      </c>
+      <c r="C93">
+        <v>2020</v>
+      </c>
+      <c r="D93" t="s">
+        <v>27</v>
+      </c>
+      <c r="E93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>2022</v>
+      </c>
+      <c r="C94">
+        <v>2021</v>
+      </c>
+      <c r="D94" t="s">
+        <v>27</v>
+      </c>
+      <c r="E94">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
